--- a/src/services/templates/templateMachines.xlsx
+++ b/src/services/templates/templateMachines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8775710-68BC-C147-999E-B39973F375F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FFD6C5-7CBD-804D-A915-FCFE23B20B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="10080" windowWidth="33600" windowHeight="9180" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
@@ -96,7 +96,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,7 +175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +189,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,7 +512,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="20"/>
@@ -523,7 +532,7 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">

--- a/src/services/templates/templateMachines.xlsx
+++ b/src/services/templates/templateMachines.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FFD6C5-7CBD-804D-A915-FCFE23B20B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467FC8CE-0630-AC4C-8453-1CFC461C1584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="10080" windowWidth="33600" windowHeight="9180" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
+    <workbookView xWindow="-33620" yWindow="6540" windowWidth="33600" windowHeight="9180" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +59,31 @@
   <si>
     <t>RobotVersions</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑原則、マシン名だけ入れればOK</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">ゲンソク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Machine_0192</t>
+  </si>
+  <si>
+    <t>Machine_0523</t>
+  </si>
+  <si>
+    <t>[{"Count":1,"Version":null}]</t>
+  </si>
+  <si>
+    <t>Machine_0191</t>
   </si>
 </sst>
 </file>
@@ -116,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -169,13 +195,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,6 +233,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,7 +562,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="20"/>
@@ -558,4 +608,123 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC8F917-2295-5B4C-9466-71F2B476C786}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="14.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/services/templates/templateMachines.xlsx
+++ b/src/services/templates/templateMachines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467FC8CE-0630-AC4C-8453-1CFC461C1584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B947140-6064-7440-89AC-4D67AC08DECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33620" yWindow="6540" windowWidth="33600" windowHeight="9180" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
+    <workbookView xWindow="-39100" yWindow="4280" windowWidth="33600" windowHeight="9180" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -585,10 +585,10 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -616,7 +616,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="20"/>
@@ -639,10 +639,10 @@
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
